--- a/FINAL word list.xlsx
+++ b/FINAL word list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sara\Desktop\christ study material\SEM 2\Sem II - research paper\MAIN AND FINAL TASK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBCAA6FB-F6AD-4A49-8BDF-F62F9290ABCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45930BF-CD3E-4980-A1ED-C8863B6B7E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0A1D8772-849F-4100-8EF4-3EB702A5B6F8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="101">
   <si>
     <t>mainword</t>
   </si>
@@ -301,9 +301,6 @@
   </si>
   <si>
     <t>pink</t>
-  </si>
-  <si>
-    <t>white</t>
   </si>
   <si>
     <t>space</t>
@@ -684,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96E0BA5-1067-4BDF-93E4-A60FB5E96BEF}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="123" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="123" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -710,7 +707,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -741,10 +738,10 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -778,7 +775,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -795,7 +792,7 @@
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -809,10 +806,10 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -846,7 +843,7 @@
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -860,10 +857,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -902,19 +899,19 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B13" t="s">
         <v>98</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>99</v>
-      </c>
-      <c r="C13" t="s">
-        <v>100</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -928,10 +925,10 @@
         <v>44</v>
       </c>
       <c r="D14" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -962,10 +959,10 @@
         <v>50</v>
       </c>
       <c r="D16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -982,7 +979,7 @@
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -996,10 +993,10 @@
         <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1016,7 +1013,7 @@
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1047,10 +1044,10 @@
         <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1067,7 +1064,7 @@
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -1115,10 +1112,10 @@
         <v>74</v>
       </c>
       <c r="D25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E25" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -1135,7 +1132,7 @@
         <v>5</v>
       </c>
       <c r="E26" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -1152,7 +1149,7 @@
         <v>4</v>
       </c>
       <c r="E27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -1169,7 +1166,7 @@
         <v>5</v>
       </c>
       <c r="E28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -1183,10 +1180,10 @@
         <v>85</v>
       </c>
       <c r="D29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1217,10 +1214,10 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E31" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL word list.xlsx
+++ b/FINAL word list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sara\Desktop\christ study material\SEM 2\Sem II - research paper\MAIN AND FINAL TASK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45930BF-CD3E-4980-A1ED-C8863B6B7E25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B11D925-C368-414F-A4F8-8CB48E87726F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0A1D8772-849F-4100-8EF4-3EB702A5B6F8}"/>
   </bookViews>
@@ -681,8 +681,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96E0BA5-1067-4BDF-93E4-A60FB5E96BEF}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="123" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" zoomScale="123" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -738,10 +738,10 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -857,10 +857,10 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="E10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -919,16 +919,16 @@
         <v>42</v>
       </c>
       <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
         <v>43</v>
       </c>
-      <c r="C14" t="s">
-        <v>44</v>
-      </c>
       <c r="D14" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -993,10 +993,10 @@
         <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1013,7 +1013,7 @@
         <v>5</v>
       </c>
       <c r="E19" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1044,10 +1044,10 @@
         <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="E21" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -1180,10 +1180,10 @@
         <v>85</v>
       </c>
       <c r="D29" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -1214,10 +1214,10 @@
         <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/FINAL word list.xlsx
+++ b/FINAL word list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sara\Desktop\christ study material\SEM 2\Sem II - research paper\MAIN AND FINAL TASK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B11D925-C368-414F-A4F8-8CB48E87726F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D73F24-1547-4066-988C-3BDABC3490CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{0A1D8772-849F-4100-8EF4-3EB702A5B6F8}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="169">
   <si>
     <t>mainword</t>
   </si>
@@ -48,252 +48,45 @@
     <t>orange</t>
   </si>
   <si>
-    <t>Aeroplane</t>
-  </si>
-  <si>
-    <t>Lorry</t>
-  </si>
-  <si>
-    <t>Nose</t>
-  </si>
-  <si>
-    <t>Bead</t>
-  </si>
-  <si>
-    <t>Pearl</t>
-  </si>
-  <si>
-    <t>Gel</t>
-  </si>
-  <si>
-    <t>Beanbag</t>
-  </si>
-  <si>
-    <t>Slingshot</t>
-  </si>
-  <si>
-    <t>Sofa</t>
-  </si>
-  <si>
     <t>Bed</t>
   </si>
   <si>
-    <t>Dinner</t>
-  </si>
-  <si>
-    <t>Mattress</t>
-  </si>
-  <si>
-    <t>Bucket</t>
-  </si>
-  <si>
-    <t>Mop</t>
-  </si>
-  <si>
-    <t>Tank</t>
-  </si>
-  <si>
-    <t>Diaper</t>
-  </si>
-  <si>
-    <t>Quilt</t>
-  </si>
-  <si>
-    <t>Urine</t>
-  </si>
-  <si>
-    <t>Doorknob</t>
-  </si>
-  <si>
-    <t>Lightswitch</t>
-  </si>
-  <si>
-    <t>Dormitory</t>
-  </si>
-  <si>
-    <t>Hummingbird</t>
-  </si>
-  <si>
-    <t>Nectar</t>
-  </si>
-  <si>
     <t>Sparrow</t>
   </si>
   <si>
-    <t>Garbage</t>
-  </si>
-  <si>
-    <t>Firewood</t>
-  </si>
-  <si>
-    <t>Gutter</t>
-  </si>
-  <si>
-    <t>Hand</t>
-  </si>
-  <si>
-    <t>Pen</t>
-  </si>
-  <si>
-    <t>Jar</t>
-  </si>
-  <si>
-    <t>Saltshaker</t>
-  </si>
-  <si>
-    <t>Sculpture</t>
-  </si>
-  <si>
-    <t>Lemon</t>
-  </si>
-  <si>
-    <t>Mint</t>
-  </si>
-  <si>
-    <t>Tangerine</t>
-  </si>
-  <si>
-    <t>Fire</t>
-  </si>
-  <si>
-    <t>Flood</t>
-  </si>
-  <si>
-    <t>Charcoal</t>
-  </si>
-  <si>
-    <t>Honey</t>
-  </si>
-  <si>
-    <t>Bush</t>
-  </si>
-  <si>
-    <t>Beeswax</t>
-  </si>
-  <si>
     <t>Elephant</t>
   </si>
   <si>
-    <t>Mongoose</t>
-  </si>
-  <si>
-    <t>Parade</t>
-  </si>
-  <si>
     <t>Potato</t>
   </si>
   <si>
-    <t>Carrot</t>
-  </si>
-  <si>
-    <t>Bus</t>
-  </si>
-  <si>
-    <t>Apple</t>
-  </si>
-  <si>
-    <t>Orange</t>
-  </si>
-  <si>
     <t>Hammer</t>
   </si>
   <si>
     <t>Horse</t>
   </si>
   <si>
-    <t>Tomato</t>
-  </si>
-  <si>
     <t>Dog</t>
   </si>
   <si>
     <t>Knife</t>
   </si>
   <si>
-    <t>Axe</t>
-  </si>
-  <si>
-    <t>Cat</t>
-  </si>
-  <si>
-    <t>Eye</t>
-  </si>
-  <si>
-    <t>Scooter</t>
-  </si>
-  <si>
     <t>Ear</t>
   </si>
   <si>
-    <t>Brick</t>
-  </si>
-  <si>
     <t>Banana</t>
   </si>
   <si>
-    <t>Cement</t>
-  </si>
-  <si>
     <t>Rose</t>
   </si>
   <si>
-    <t>Jasmine</t>
-  </si>
-  <si>
-    <t>Onion</t>
-  </si>
-  <si>
-    <t>Pencil</t>
-  </si>
-  <si>
-    <t>Leg</t>
-  </si>
-  <si>
-    <t>Tyre</t>
-  </si>
-  <si>
-    <t>Camel</t>
-  </si>
-  <si>
-    <t>Tree</t>
-  </si>
-  <si>
-    <t>Fish</t>
-  </si>
-  <si>
-    <t>Table</t>
-  </si>
-  <si>
-    <t>Chair</t>
-  </si>
-  <si>
     <t>Spider</t>
   </si>
   <si>
-    <t>Paper</t>
-  </si>
-  <si>
     <t>Car</t>
   </si>
   <si>
-    <t>Book</t>
-  </si>
-  <si>
-    <t>Brinjal</t>
-  </si>
-  <si>
-    <t>Chilli</t>
-  </si>
-  <si>
-    <t>Lion</t>
-  </si>
-  <si>
-    <t>Tiger</t>
-  </si>
-  <si>
-    <t>Shoeflower</t>
-  </si>
-  <si>
     <t>yellow</t>
   </si>
   <si>
@@ -318,16 +111,427 @@
     <t>#57c552</t>
   </si>
   <si>
-    <t>Stamp</t>
-  </si>
-  <si>
-    <t>Postcard</t>
-  </si>
-  <si>
-    <t>Rubber</t>
-  </si>
-  <si>
     <t>#87369e</t>
+  </si>
+  <si>
+    <t>Pot</t>
+  </si>
+  <si>
+    <t>Spatula</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Floor</t>
+  </si>
+  <si>
+    <t>Chisel</t>
+  </si>
+  <si>
+    <t>Trumpet</t>
+  </si>
+  <si>
+    <t>Clarinet</t>
+  </si>
+  <si>
+    <t>Gin</t>
+  </si>
+  <si>
+    <t>Whiskey</t>
+  </si>
+  <si>
+    <t>Oak</t>
+  </si>
+  <si>
+    <t>Hail</t>
+  </si>
+  <si>
+    <t>Vanilla</t>
+  </si>
+  <si>
+    <t>Sleet</t>
+  </si>
+  <si>
+    <t>Saw</t>
+  </si>
+  <si>
+    <t>Hurricane</t>
+  </si>
+  <si>
+    <t>Football</t>
+  </si>
+  <si>
+    <t>Hockey</t>
+  </si>
+  <si>
+    <t>Milk</t>
+  </si>
+  <si>
+    <t>Vodka</t>
+  </si>
+  <si>
+    <t>Wine</t>
+  </si>
+  <si>
+    <t>Corn</t>
+  </si>
+  <si>
+    <t>Coffee</t>
+  </si>
+  <si>
+    <t>Shirt</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Pea</t>
+  </si>
+  <si>
+    <t>Wool</t>
+  </si>
+  <si>
+    <t>Rain</t>
+  </si>
+  <si>
+    <t>Nylon</t>
+  </si>
+  <si>
+    <t>Eagle</t>
+  </si>
+  <si>
+    <t>Bluebird</t>
+  </si>
+  <si>
+    <t>Salt</t>
+  </si>
+  <si>
+    <t>Gun</t>
+  </si>
+  <si>
+    <t>Sword</t>
+  </si>
+  <si>
+    <t>Shark</t>
+  </si>
+  <si>
+    <t>Trout</t>
+  </si>
+  <si>
+    <t>Tornado</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>Desk</t>
+  </si>
+  <si>
+    <t>Ceiling</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t>Airplane</t>
+  </si>
+  <si>
+    <t>Classical</t>
+  </si>
+  <si>
+    <t>Symphony</t>
+  </si>
+  <si>
+    <t>Coke</t>
+  </si>
+  <si>
+    <t>Socks</t>
+  </si>
+  <si>
+    <t>House</t>
+  </si>
+  <si>
+    <t>Skirt</t>
+  </si>
+  <si>
+    <t>Cow</t>
+  </si>
+  <si>
+    <t>Carnation</t>
+  </si>
+  <si>
+    <t>Elm</t>
+  </si>
+  <si>
+    <t>Maple</t>
+  </si>
+  <si>
+    <t>Bee</t>
+  </si>
+  <si>
+    <t>Mosquito</t>
+  </si>
+  <si>
+    <t>Violin</t>
+  </si>
+  <si>
+    <t>Drum</t>
+  </si>
+  <si>
+    <t>Peach</t>
+  </si>
+  <si>
+    <t>Ant</t>
+  </si>
+  <si>
+    <t>Cotton</t>
+  </si>
+  <si>
+    <t>Rifle</t>
+  </si>
+  <si>
+    <t>Dentist</t>
+  </si>
+  <si>
+    <t>Doctor</t>
+  </si>
+  <si>
+    <t>Silk</t>
+  </si>
+  <si>
+    <t>Rayon</t>
+  </si>
+  <si>
+    <t>Linen</t>
+  </si>
+  <si>
+    <t>Bean</t>
+  </si>
+  <si>
+    <t>Mountain</t>
+  </si>
+  <si>
+    <t>Screwdriver</t>
+  </si>
+  <si>
+    <t>Valley</t>
+  </si>
+  <si>
+    <t>Cinnamon</t>
+  </si>
+  <si>
+    <t>Lawyer</t>
+  </si>
+  <si>
+    <t>Salesman</t>
+  </si>
+  <si>
+    <t>Cliff</t>
+  </si>
+  <si>
+    <t>Lily</t>
+  </si>
+  <si>
+    <t>Piano</t>
+  </si>
+  <si>
+    <t>Twist</t>
+  </si>
+  <si>
+    <t>Jerk</t>
+  </si>
+  <si>
+    <t>Grape</t>
+  </si>
+  <si>
+    <t>Teacher</t>
+  </si>
+  <si>
+    <t>Gasoline</t>
+  </si>
+  <si>
+    <t>Rock</t>
+  </si>
+  <si>
+    <t>Kerosine</t>
+  </si>
+  <si>
+    <t>Adjective</t>
+  </si>
+  <si>
+    <t>Noun</t>
+  </si>
+  <si>
+    <t>Garlic</t>
+  </si>
+  <si>
+    <t>Cloves</t>
+  </si>
+  <si>
+    <t>Themes</t>
+  </si>
+  <si>
+    <t>Tea</t>
+  </si>
+  <si>
+    <t>Sardine</t>
+  </si>
+  <si>
+    <t>Clams</t>
+  </si>
+  <si>
+    <t>Waterlily</t>
+  </si>
+  <si>
+    <t>Laboratory</t>
+  </si>
+  <si>
+    <t>Room</t>
+  </si>
+  <si>
+    <t>Grammer</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
+    <t>Conjunction</t>
+  </si>
+  <si>
+    <t>Avalanche</t>
+  </si>
+  <si>
+    <t>Volcano Eruption</t>
+  </si>
+  <si>
+    <t>Jane</t>
+  </si>
+  <si>
+    <t>Apartment</t>
+  </si>
+  <si>
+    <t>Beer</t>
+  </si>
+  <si>
+    <t>Hotel</t>
+  </si>
+  <si>
+    <t>Scorpian</t>
+  </si>
+  <si>
+    <t>Roach</t>
+  </si>
+  <si>
+    <t>Harmonica</t>
+  </si>
+  <si>
+    <t>Jacket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apron </t>
+  </si>
+  <si>
+    <t>Ducks</t>
+  </si>
+  <si>
+    <t>Tennis</t>
+  </si>
+  <si>
+    <t>Swimming</t>
+  </si>
+  <si>
+    <t>Reindeer</t>
+  </si>
+  <si>
+    <t>Hill</t>
+  </si>
+  <si>
+    <t>Cheek</t>
+  </si>
+  <si>
+    <t>Lizard</t>
+  </si>
+  <si>
+    <t>Speedball</t>
+  </si>
+  <si>
+    <t>Golf</t>
+  </si>
+  <si>
+    <t>Jellyfish</t>
+  </si>
+  <si>
+    <t>Whale</t>
+  </si>
+  <si>
+    <t>Pepper</t>
+  </si>
+  <si>
+    <t>Serving Spoon</t>
+  </si>
+  <si>
+    <t>Bells</t>
+  </si>
+  <si>
+    <t>Closet</t>
+  </si>
+  <si>
+    <t>Banker</t>
+  </si>
+  <si>
+    <t>Bookcase</t>
+  </si>
+  <si>
+    <t>StringBass</t>
+  </si>
+  <si>
+    <t>Harp</t>
+  </si>
+  <si>
+    <t>Exclamation</t>
+  </si>
+  <si>
+    <t>Anteater</t>
+  </si>
+  <si>
+    <t>Porcupine</t>
+  </si>
+  <si>
+    <t>Showers</t>
+  </si>
+  <si>
+    <t>Quarter</t>
+  </si>
+  <si>
+    <t>Parsley</t>
+  </si>
+  <si>
+    <t>Opera</t>
+  </si>
+  <si>
+    <t>Suit</t>
+  </si>
+  <si>
+    <t>T-shirt</t>
+  </si>
+  <si>
+    <t>Garden</t>
+  </si>
+  <si>
+    <t>Orchid</t>
+  </si>
+  <si>
+    <t>GingerAle</t>
+  </si>
+  <si>
+    <t>Pistol</t>
+  </si>
+  <si>
+    <t>Lemonande</t>
+  </si>
+  <si>
+    <t>Schnapps</t>
   </si>
 </sst>
 </file>
@@ -679,10 +883,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E96E0BA5-1067-4BDF-93E4-A60FB5E96BEF}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="123" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -691,6 +895,9 @@
     <col min="2" max="2" width="12" customWidth="1"/>
     <col min="3" max="3" width="12.5546875" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="8" max="8" width="10.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -707,38 +914,38 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -746,84 +953,84 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
         <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>92</v>
-      </c>
-      <c r="E7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -831,203 +1038,203 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
         <v>5</v>
       </c>
       <c r="E9" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="D12" t="s">
         <v>5</v>
       </c>
       <c r="E12" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" t="s">
         <v>97</v>
       </c>
-      <c r="B13" t="s">
-        <v>98</v>
-      </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D13" t="s">
         <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E14" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="D15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E17" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="B18" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D18" t="s">
         <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="C19" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="D19" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>89</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E20" t="s">
         <v>6</v>
@@ -1035,189 +1242,699 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C21" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D21" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="B22" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D22" t="s">
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="B23" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D23" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
       </c>
       <c r="E24" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D25" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="E25" t="s">
-        <v>94</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B26" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="C26" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>100</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="B27" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="C27" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C28" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="D28" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="C29" t="s">
-        <v>85</v>
+        <v>18</v>
       </c>
       <c r="D29" t="s">
         <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>90</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B30" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D30" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E30" t="s">
-        <v>91</v>
+        <v>22</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>94</v>
       </c>
       <c r="B31" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" t="s">
+        <v>96</v>
+      </c>
+      <c r="D31" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" t="s">
         <v>8</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D38" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B39" t="s">
+        <v>113</v>
+      </c>
+      <c r="C39" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" t="s">
+        <v>114</v>
+      </c>
+      <c r="C40" t="s">
+        <v>115</v>
+      </c>
+      <c r="D40" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" t="s">
+        <v>117</v>
+      </c>
+      <c r="C41" t="s">
+        <v>118</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" t="s">
+        <v>10</v>
+      </c>
+      <c r="C43" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" t="s">
+        <v>23</v>
+      </c>
+      <c r="E43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" t="s">
+        <v>5</v>
+      </c>
+      <c r="E44" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>124</v>
+      </c>
+      <c r="B45" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" t="s">
+        <v>126</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>127</v>
+      </c>
+      <c r="B46" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" t="s">
+        <v>5</v>
+      </c>
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>130</v>
+      </c>
+      <c r="B47" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>133</v>
+      </c>
+      <c r="B48" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>136</v>
+      </c>
+      <c r="B49" t="s">
+        <v>137</v>
+      </c>
+      <c r="C49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>138</v>
+      </c>
+      <c r="B50" t="s">
         <v>9</v>
       </c>
-      <c r="D31" t="s">
-        <v>4</v>
-      </c>
-      <c r="E31" t="s">
-        <v>89</v>
+      <c r="C50" t="s">
+        <v>139</v>
+      </c>
+      <c r="D50" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>140</v>
+      </c>
+      <c r="B51" t="s">
+        <v>141</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" t="s">
+        <v>5</v>
+      </c>
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>142</v>
+      </c>
+      <c r="B52" t="s">
+        <v>143</v>
+      </c>
+      <c r="C52" t="s">
+        <v>11</v>
+      </c>
+      <c r="D52" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>144</v>
+      </c>
+      <c r="B53" t="s">
+        <v>146</v>
+      </c>
+      <c r="C53" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>147</v>
+      </c>
+      <c r="B54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" t="s">
+        <v>148</v>
+      </c>
+      <c r="D54" t="s">
+        <v>23</v>
+      </c>
+      <c r="E54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>149</v>
+      </c>
+      <c r="B55" t="s">
+        <v>150</v>
+      </c>
+      <c r="C55" t="s">
+        <v>151</v>
+      </c>
+      <c r="D55" t="s">
+        <v>5</v>
+      </c>
+      <c r="E55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>152</v>
+      </c>
+      <c r="B56" t="s">
+        <v>153</v>
+      </c>
+      <c r="C56" t="s">
+        <v>154</v>
+      </c>
+      <c r="D56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>155</v>
+      </c>
+      <c r="B57" t="s">
+        <v>156</v>
+      </c>
+      <c r="C57" t="s">
+        <v>157</v>
+      </c>
+      <c r="D57" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>158</v>
+      </c>
+      <c r="B58" t="s">
+        <v>159</v>
+      </c>
+      <c r="C58" t="s">
+        <v>160</v>
+      </c>
+      <c r="D58" t="s">
+        <v>5</v>
+      </c>
+      <c r="E58" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>161</v>
+      </c>
+      <c r="B59" t="s">
+        <v>162</v>
+      </c>
+      <c r="C59" t="s">
+        <v>168</v>
+      </c>
+      <c r="D59" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>163</v>
+      </c>
+      <c r="B60" t="s">
+        <v>164</v>
+      </c>
+      <c r="C60" t="s">
+        <v>107</v>
+      </c>
+      <c r="D60" t="s">
+        <v>4</v>
+      </c>
+      <c r="E60" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>166</v>
+      </c>
+      <c r="C61" t="s">
+        <v>54</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
